--- a/other/backend/basic/read_excel_test.xlsx
+++ b/other/backend/basic/read_excel_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pythonProjects\liu_aistuff\other\backend\basic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E153FCAF-4EC5-4A76-A443-23C4AE5EAE13}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAB41D2-18CA-4972-BC3E-29F8FDCBC207}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="540" windowWidth="27540" windowHeight="15135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2220" yWindow="1395" windowWidth="27540" windowHeight="15135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -385,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -440,25 +440,25 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4554564561</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-    </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
+        <v>4554564561</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>12342345243</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>8</v>
       </c>
     </row>
